--- a/tools/ff-sample-instructions.xlsx
+++ b/tools/ff-sample-instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\BrunoMoreira\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ff-factors\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330BFF61-4D42-4162-AAE0-F70A0EEA2779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1A3C51-F839-4697-A40C-1BA2EF5563D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75311296-F18B-4AEB-BED4-B9996222B5C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75311296-F18B-4AEB-BED4-B9996222B5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>1)</t>
   </si>
@@ -44,33 +44,18 @@
     <t>2)</t>
   </si>
   <si>
-    <t>Take ME on December t-1</t>
-  </si>
-  <si>
     <t>Take BE on fiscal year end t-1</t>
   </si>
   <si>
     <t>3)</t>
   </si>
   <si>
-    <t>Rebalance on June end, period t</t>
-  </si>
-  <si>
-    <t>SMB</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>NYSE, AMEX, NASDAQ only (EXCHGCD 1, 2, &amp; 3)</t>
   </si>
   <si>
     <t>Common stocks only (SHRCD 10 &amp; 11)</t>
   </si>
   <si>
-    <t>No negative BE</t>
-  </si>
-  <si>
     <t>4)</t>
   </si>
   <si>
@@ -83,10 +68,34 @@
     <t>Only data available in both CRSP and Compustat</t>
   </si>
   <si>
-    <t>Only firms that are on Compustat at least 2 years</t>
-  </si>
-  <si>
     <t>6)</t>
+  </si>
+  <si>
+    <t>Take ME on December t-1 for BE/ME</t>
+  </si>
+  <si>
+    <t>Factors</t>
+  </si>
+  <si>
+    <t>Take most recent data in the previous year for all characteristics that use Compustat data, e.g.</t>
+  </si>
+  <si>
+    <t>For CRSP-based characteristics (e.g size/ME), sort based on most recent values (i.e. end of June)</t>
+  </si>
+  <si>
+    <t>No negative BE (for BE-including factors)</t>
+  </si>
+  <si>
+    <t>Only firms that are on Compustat at least 2 years (deals with look-ahead bias in the Compustat database)</t>
+  </si>
+  <si>
+    <t>(This deals with look-ahead bias in the Compustat database)</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Rebalance at June end, period t</t>
   </si>
 </sst>
 </file>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAAE440-1376-4532-82C6-CF400F1294BC}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -466,86 +475,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
